--- a/data/trans_camb/P5_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P5_R-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,57; 11,32</t>
+          <t>2,4; 10,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,37; 9,06</t>
+          <t>-0,11; 9,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,85; -7,57</t>
+          <t>-15,92; -7,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,48; 8,97</t>
+          <t>1,52; 8,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 3,5</t>
+          <t>-4,44; 3,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-20,1; -13,11</t>
+          <t>-19,97; -13,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,88; 8,84</t>
+          <t>3,22; 8,94</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 4,73</t>
+          <t>-1,03; 5,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-17,05; -11,8</t>
+          <t>-17,05; -11,75</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,56; 39,16</t>
+          <t>6,84; 37,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,31; 30,79</t>
+          <t>0,24; 31,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-48,28; -25,02</t>
+          <t>-48,2; -24,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,09; 27,34</t>
+          <t>4,19; 26,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-12,0; 10,86</t>
+          <t>-12,43; 11,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-55,31; -39,83</t>
+          <t>-55,31; -40,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,92; 28,02</t>
+          <t>9,24; 28,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 14,81</t>
+          <t>-3,0; 15,8</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-50,16; -36,72</t>
+          <t>-50,17; -36,82</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,02; 15,26</t>
+          <t>8,94; 15,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,34; 10,3</t>
+          <t>4,5; 10,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,69; -7,83</t>
+          <t>-14,1; -8,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,26; 7,89</t>
+          <t>0,95; 7,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 5,37</t>
+          <t>-1,3; 5,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-16,21; 4,09</t>
+          <t>-16,54; 0,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,73; 10,6</t>
+          <t>6,32; 10,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,46; 6,94</t>
+          <t>2,64; 6,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-13,81; -3,32</t>
+          <t>-13,66; -2,53</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>31,16; 59,76</t>
+          <t>30,45; 58,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,96; 39,73</t>
+          <t>15,47; 41,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-47,82; -30,06</t>
+          <t>-48,23; -31,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,29; 23,62</t>
+          <t>2,61; 23,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 16,37</t>
+          <t>-3,49; 15,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-45,71; 13,75</t>
+          <t>-46,63; 0,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,02; 35,91</t>
+          <t>19,74; 37,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,67; 23,31</t>
+          <t>8,26; 23,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-43,78; -9,89</t>
+          <t>-43,52; -7,72</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,77; 17,35</t>
+          <t>5,17; 17,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,05; 14,0</t>
+          <t>2,32; 14,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,48; -4,16</t>
+          <t>-15,14; -4,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,24; 16,75</t>
+          <t>3,73; 16,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,28; 14,09</t>
+          <t>1,3; 13,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-15,14; -4,13</t>
+          <t>-15,25; -4,7</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,26; 15,31</t>
+          <t>6,16; 15,29</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,33; 11,87</t>
+          <t>3,4; 12,2</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-13,17; -5,55</t>
+          <t>-13,34; -5,96</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13,4; 59,81</t>
+          <t>14,79; 60,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,42; 46,7</t>
+          <t>6,74; 49,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-43,54; -13,79</t>
+          <t>-42,61; -14,69</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>11,65; 56,4</t>
+          <t>9,95; 55,06</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,41; 46,35</t>
+          <t>3,59; 45,53</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-40,31; -13,5</t>
+          <t>-41,34; -15,05</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>17,74; 49,72</t>
+          <t>17,45; 48,86</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>9,83; 38,94</t>
+          <t>9,82; 39,47</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-37,61; -18,12</t>
+          <t>-37,88; -19,46</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,89; 12,57</t>
+          <t>7,64; 12,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,07; 8,64</t>
+          <t>4,26; 8,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-13,4; -9,18</t>
+          <t>-13,48; -8,91</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,86; 7,71</t>
+          <t>3,26; 7,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,11; 4,68</t>
+          <t>-0,24; 4,63</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-15,08; -3,67</t>
+          <t>-15,07; -2,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,91; 9,34</t>
+          <t>6,12; 9,68</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,69; 5,95</t>
+          <t>2,76; 6,07</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-13,51; -6,98</t>
+          <t>-13,53; -7,29</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>25,9; 43,76</t>
+          <t>25,07; 44,76</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>13,11; 30,34</t>
+          <t>14,05; 30,65</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-44,28; -31,92</t>
+          <t>-44,11; -31,61</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>8,03; 23,16</t>
+          <t>9,05; 23,68</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,25; 13,91</t>
+          <t>-0,75; 13,97</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-43,33; -9,97</t>
+          <t>-43,16; -7,38</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>18,0; 29,81</t>
+          <t>18,69; 31,23</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>8,07; 18,86</t>
+          <t>8,43; 19,36</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-41,62; -21,58</t>
+          <t>-41,56; -22,07</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P5_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P5_R-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,4; 10,97</t>
+          <t>2,71; 11,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 9,28</t>
+          <t>0,32; 9,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,92; -7,32</t>
+          <t>-16,15; -7,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,52; 8,73</t>
+          <t>1,29; 8,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 3,75</t>
+          <t>-4,37; 3,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,97; -13,41</t>
+          <t>-19,92; -13,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,22; 8,94</t>
+          <t>2,66; 8,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 5,01</t>
+          <t>-1,07; 4,99</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-17,05; -11,75</t>
+          <t>-17,2; -12,04</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,84; 37,45</t>
+          <t>8,17; 37,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,24; 31,77</t>
+          <t>0,97; 33,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-48,2; -24,28</t>
+          <t>-48,55; -24,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,19; 26,65</t>
+          <t>3,72; 27,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-12,43; 11,46</t>
+          <t>-12,17; 12,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-55,31; -40,79</t>
+          <t>-54,88; -40,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,24; 28,21</t>
+          <t>7,98; 27,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 15,8</t>
+          <t>-2,98; 15,7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-50,17; -36,82</t>
+          <t>-50,17; -37,3</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,94; 15,27</t>
+          <t>9,04; 15,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,5; 10,68</t>
+          <t>4,4; 10,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,1; -8,22</t>
+          <t>-13,69; -8,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,95; 7,64</t>
+          <t>0,85; 8,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 5,11</t>
+          <t>-1,4; 5,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-16,54; 0,19</t>
+          <t>-16,35; 1,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,32; 10,83</t>
+          <t>6,26; 10,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,64; 6,95</t>
+          <t>2,42; 7,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-13,66; -2,53</t>
+          <t>-13,76; -4,15</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>30,45; 58,87</t>
+          <t>30,89; 59,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,47; 41,46</t>
+          <t>15,06; 40,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-48,23; -31,81</t>
+          <t>-48,11; -31,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,61; 23,2</t>
+          <t>2,4; 24,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 15,63</t>
+          <t>-3,82; 16,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-46,63; 0,69</t>
+          <t>-45,71; 6,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19,74; 37,03</t>
+          <t>19,43; 36,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,26; 23,46</t>
+          <t>7,58; 24,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-43,52; -7,72</t>
+          <t>-43,68; -11,37</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,17; 17,77</t>
+          <t>4,93; 17,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,32; 14,36</t>
+          <t>1,41; 13,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,14; -4,51</t>
+          <t>-15,35; -4,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,73; 16,45</t>
+          <t>4,35; 16,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,3; 13,83</t>
+          <t>1,71; 14,81</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-15,25; -4,7</t>
+          <t>-15,48; -4,22</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,16; 15,29</t>
+          <t>6,31; 15,43</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,4; 12,2</t>
+          <t>3,21; 11,81</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-13,34; -5,96</t>
+          <t>-13,94; -5,99</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>14,79; 60,55</t>
+          <t>13,38; 58,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,74; 49,92</t>
+          <t>4,92; 46,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-42,61; -14,69</t>
+          <t>-43,9; -15,32</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9,95; 55,06</t>
+          <t>12,02; 55,36</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,59; 45,53</t>
+          <t>4,5; 48,68</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-41,34; -15,05</t>
+          <t>-40,3; -13,89</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>17,45; 48,86</t>
+          <t>17,99; 51,12</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>9,82; 39,47</t>
+          <t>9,23; 39,25</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-37,88; -19,46</t>
+          <t>-38,55; -19,45</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,64; 12,61</t>
+          <t>7,94; 12,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,26; 8,65</t>
+          <t>4,17; 8,79</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-13,48; -8,91</t>
+          <t>-13,47; -9,11</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,26; 7,81</t>
+          <t>2,87; 7,83</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 4,63</t>
+          <t>-0,07; 4,64</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-15,07; -2,77</t>
+          <t>-14,93; -2,17</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,12; 9,68</t>
+          <t>6,15; 9,42</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,76; 6,07</t>
+          <t>2,61; 6,02</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-13,53; -7,29</t>
+          <t>-13,55; -6,94</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>25,07; 44,76</t>
+          <t>26,07; 44,83</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>14,05; 30,65</t>
+          <t>13,6; 30,96</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-44,11; -31,61</t>
+          <t>-44,11; -32,25</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>9,05; 23,68</t>
+          <t>8,09; 23,62</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 13,97</t>
+          <t>-0,2; 13,94</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-43,16; -7,38</t>
+          <t>-42,91; -4,31</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>18,69; 31,23</t>
+          <t>18,86; 30,37</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>8,43; 19,36</t>
+          <t>7,97; 19,28</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-41,56; -22,07</t>
+          <t>-41,58; -21,66</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P5_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P5_R-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con algún problema medioambiental importante en la zona de residencia</t>
+          <t>Población con algún problema medioambiental en la zona de residencia</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,71; 11,04</t>
+          <t>2,57; 11,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,32; 9,71</t>
+          <t>0,37; 9,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-16,15; -7,26</t>
+          <t>-15,85; -7,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,29; 8,82</t>
+          <t>1,48; 8,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 3,94</t>
+          <t>-4,31; 3,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,92; -13,17</t>
+          <t>-20,1; -13,11</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,66; 8,58</t>
+          <t>2,88; 8,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 4,99</t>
+          <t>-1,11; 4,73</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-17,2; -12,04</t>
+          <t>-17,05; -11,8</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,17; 37,28</t>
+          <t>7,56; 39,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,97; 33,2</t>
+          <t>1,31; 30,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-48,55; -24,13</t>
+          <t>-48,28; -25,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,72; 27,33</t>
+          <t>4,09; 27,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-12,17; 12,01</t>
+          <t>-12,0; 10,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-54,88; -40,39</t>
+          <t>-55,31; -39,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,98; 27,17</t>
+          <t>8,92; 28,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 15,7</t>
+          <t>-3,21; 14,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-50,17; -37,3</t>
+          <t>-50,16; -36,72</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,04; 15,34</t>
+          <t>9,02; 15,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,4; 10,51</t>
+          <t>4,34; 10,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,69; -8,27</t>
+          <t>-13,69; -7,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,85; 8,05</t>
+          <t>1,26; 7,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 5,35</t>
+          <t>-1,42; 5,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-16,35; 1,95</t>
+          <t>-16,21; 4,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,26; 10,75</t>
+          <t>5,73; 10,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,42; 7,07</t>
+          <t>2,46; 6,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-13,76; -4,15</t>
+          <t>-13,81; -3,32</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>30,89; 59,24</t>
+          <t>31,16; 59,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,06; 40,49</t>
+          <t>14,96; 39,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-48,11; -31,74</t>
+          <t>-47,82; -30,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,4; 24,52</t>
+          <t>3,29; 23,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 16,34</t>
+          <t>-3,95; 16,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-45,71; 6,64</t>
+          <t>-45,71; 13,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19,43; 36,17</t>
+          <t>18,02; 35,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,58; 24,02</t>
+          <t>7,67; 23,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-43,68; -11,37</t>
+          <t>-43,78; -9,89</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,93; 17,81</t>
+          <t>4,77; 17,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,41; 13,6</t>
+          <t>2,05; 14,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,35; -4,59</t>
+          <t>-15,48; -4,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,35; 16,78</t>
+          <t>4,24; 16,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,71; 14,81</t>
+          <t>1,28; 14,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-15,48; -4,22</t>
+          <t>-15,14; -4,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,31; 15,43</t>
+          <t>6,26; 15,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,21; 11,81</t>
+          <t>3,33; 11,87</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-13,94; -5,99</t>
+          <t>-13,17; -5,55</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13,38; 58,42</t>
+          <t>13,4; 59,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,92; 46,92</t>
+          <t>5,42; 46,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-43,9; -15,32</t>
+          <t>-43,54; -13,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12,02; 55,36</t>
+          <t>11,65; 56,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,5; 48,68</t>
+          <t>3,41; 46,35</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-40,3; -13,89</t>
+          <t>-40,31; -13,5</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>17,99; 51,12</t>
+          <t>17,74; 49,72</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>9,23; 39,25</t>
+          <t>9,83; 38,94</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-38,55; -19,45</t>
+          <t>-37,61; -18,12</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,94; 12,64</t>
+          <t>7,89; 12,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,17; 8,79</t>
+          <t>4,07; 8,64</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-13,47; -9,11</t>
+          <t>-13,4; -9,18</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,87; 7,83</t>
+          <t>2,86; 7,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 4,64</t>
+          <t>0,11; 4,68</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-14,93; -2,17</t>
+          <t>-15,08; -3,67</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,15; 9,42</t>
+          <t>5,91; 9,34</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,61; 6,02</t>
+          <t>2,69; 5,95</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-13,55; -6,94</t>
+          <t>-13,51; -6,98</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>26,07; 44,83</t>
+          <t>25,9; 43,76</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>13,6; 30,96</t>
+          <t>13,11; 30,34</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-44,11; -32,25</t>
+          <t>-44,28; -31,92</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>8,09; 23,62</t>
+          <t>8,03; 23,16</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 13,94</t>
+          <t>0,25; 13,91</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-42,91; -4,31</t>
+          <t>-43,33; -9,97</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>18,86; 30,37</t>
+          <t>18,0; 29,81</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>7,97; 19,28</t>
+          <t>8,07; 18,86</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-41,58; -21,66</t>
+          <t>-41,62; -21,58</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P5_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P5_R-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-11,79</t>
+          <t>-11,87</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-16,51</t>
+          <t>-16,61</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-14,52</t>
+          <t>-14,59</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,85; -7,57</t>
+          <t>-15,99; -7,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-20,1; -13,11</t>
+          <t>-20,09; -13,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-17,05; -11,8</t>
+          <t>-17,09; -11,83</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-37,34%</t>
+          <t>-37,58%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-47,96%</t>
+          <t>-48,24%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-43,78%</t>
+          <t>-43,98%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-48,28; -25,02</t>
+          <t>-48,47; -25,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-55,31; -39,83</t>
+          <t>-55,49; -40,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-50,16; -36,72</t>
+          <t>-50,24; -36,83</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-10,88</t>
+          <t>-12,36</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-11,21</t>
+          <t>-8,74</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-10,86</t>
+          <t>-10,49</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,69; -7,83</t>
+          <t>-17,32; -9,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-16,21; 4,09</t>
+          <t>-17,18; 16,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-13,81; -3,32</t>
+          <t>-15,19; 2,92</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-39,86%</t>
+          <t>-45,28%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-32,28%</t>
+          <t>-25,16%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-35,14%</t>
+          <t>-33,97%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-47,82; -30,06</t>
+          <t>-61,22; -34,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-45,71; 13,75</t>
+          <t>-48,6; 48,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-43,78; -9,89</t>
+          <t>-48,65; 9,54</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-9,9</t>
+          <t>-9,42</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-9,32</t>
+          <t>-9,6</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-9,56</t>
+          <t>-9,48</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,48; -4,16</t>
+          <t>-14,96; -3,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-15,14; -4,13</t>
+          <t>-15,42; -4,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-13,17; -5,55</t>
+          <t>-13,03; -5,1</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-30,47%</t>
+          <t>-28,99%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-27,99%</t>
+          <t>-28,85%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-29,09%</t>
+          <t>-28,85%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-43,54; -13,79</t>
+          <t>-43,39; -10,15</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-40,31; -13,5</t>
+          <t>-41,14; -14,57</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-37,61; -18,12</t>
+          <t>-37,54; -16,79</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-11,33</t>
+          <t>-12,35</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-12,04</t>
+          <t>-10,52</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-11,6</t>
+          <t>-11,38</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-13,4; -9,18</t>
+          <t>-16,34; -9,89</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-15,08; -3,67</t>
+          <t>-15,71; 4,17</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-13,51; -6,98</t>
+          <t>-14,5; -2,46</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-38,39%</t>
+          <t>-41,82%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-34,99%</t>
+          <t>-30,58%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-36,25%</t>
+          <t>-35,55%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-44,28; -31,92</t>
+          <t>-53,91; -34,39</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-43,33; -9,97</t>
+          <t>-45,14; 14,01</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-41,62; -21,58</t>
+          <t>-45,1; -7,38</t>
         </is>
       </c>
     </row>
